--- a/1.암임상라이브러리/1.위암/1.위암테이블정의서.xlsx
+++ b/1.암임상라이브러리/1.위암/1.위암테이블정의서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12050" tabRatio="672" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23540" windowHeight="10430" tabRatio="672"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="34" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="202">
   <si>
     <t>대분류</t>
   </si>
@@ -772,6 +772,27 @@
 수술명-VARCHAR(500)
 위내시경조직표본수-VARCHAR(100)
 재발증상코드 값 수정(Palpable mass, Skin change, Palpable Lymph node, 기타)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.02.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방암</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방암테이블컬럼정의서(최종본)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNA변이정보A값(DNA_VAINF_A_VL)  컬럼의 
+데이터타입 NUMERIC(10,3)-&gt;VARCHAR(200) 값VC200 으로 변경</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1373,11 +1394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2021,6 +2042,29 @@
       </c>
       <c r="G28" s="17" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="A29" s="12">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2040,8 +2084,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2375,7 +2419,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -2407,7 +2451,7 @@
         <v>46</v>
       </c>
       <c r="J11" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
